--- a/database.xlsx
+++ b/database.xlsx
@@ -1,33 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muj\IdeaProjects\EARS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F09FA1E-13CC-4E15-9ED6-6460EF37C03F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-240" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Logins" r:id="rId3" sheetId="1"/>
+    <sheet name="Logins" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>admin</t>
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>muj</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>faculty</t>
+  </si>
+  <si>
+    <t>newpassword</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -39,7 +59,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -57,18 +77,328 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -79,7 +409,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muj\IdeaProjects\EARS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F09FA1E-13CC-4E15-9ED6-6460EF37C03F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1FB03A-0A95-475F-A0F1-E1025E16717A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-240" yWindow="0" windowWidth="29040" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Logins" sheetId="1" r:id="rId1"/>
+    <sheet name="Applicants" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>admin</t>
   </si>
@@ -38,6 +39,126 @@
   </si>
   <si>
     <t>newpassword</t>
+  </si>
+  <si>
+    <t>taf</t>
+  </si>
+  <si>
+    <t>pass123</t>
+  </si>
+  <si>
+    <t>mmohmand</t>
+  </si>
+  <si>
+    <t>password123</t>
+  </si>
+  <si>
+    <t>mohmand</t>
+  </si>
+  <si>
+    <t>10 Sunny Street, Toronto</t>
+  </si>
+  <si>
+    <t>mmohmand@algomau.ca</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>computer science</t>
+  </si>
+  <si>
+    <t>Algoma University</t>
+  </si>
+  <si>
+    <t>ceo</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>He's awesome!</t>
+  </si>
+  <si>
+    <t>C:\Users\muj\Desktop\algoma\Y Daniel Liang - Introduction to Java Programming and Data Structures, Comprehensive Version-Pearson (2017).pdf</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>jobid</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>communication</t>
+  </si>
+  <si>
+    <t>yearsexp</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>attachment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jane </t>
+  </si>
+  <si>
+    <t>smith</t>
+  </si>
+  <si>
+    <t>123 fairway ave, sault ste marie, ontario</t>
+  </si>
+  <si>
+    <t>janesmith@google.com</t>
+  </si>
+  <si>
+    <t>555555555</t>
+  </si>
+  <si>
+    <t>Waterloo</t>
+  </si>
+  <si>
+    <t>developer</t>
+  </si>
+  <si>
+    <t>Good candiate. Recommended for interview with team.</t>
   </si>
 </sst>
 </file>
@@ -390,13 +511,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -409,7 +535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -420,7 +546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -429,6 +555,267 @@
       </c>
       <c r="C3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0A1740-D110-4DE6-8D42-3FA7FEF3F571}">
+  <dimension ref="A1:R4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t>admin</t>
   </si>
@@ -159,6 +159,68 @@
   </si>
   <si>
     <t>Good candiate. Recommended for interview with team.</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+  <si>
+    <t>savage</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>Gauthier</t>
+  </si>
+  <si>
+    <t>123 queen street, Sault ste Marie, Ontario</t>
+  </si>
+  <si>
+    <t>kgauthier@algomau.ca</t>
+  </si>
+  <si>
+    <t>9999999999</t>
+  </si>
+  <si>
+    <t>Algoma</t>
+  </si>
+  <si>
+    <t>farmer</t>
+  </si>
+  <si>
+    <t>Maple Farms R Us</t>
+  </si>
+  <si>
+    <t>- Not a contributer and has very poor communication skills. 
+- unreliable, not a self-starter, does not show intiative. 
+- Candidate requires lots of direction and cannot function well in a group.</t>
+  </si>
+  <si>
+    <t>muj\Desktop\algoma\Y Daniel Liang - Introduction to Java Programming and Data Structures, Comprehensive Version-Pearson (2017).pdf</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>twain</t>
+  </si>
+  <si>
+    <t>123 king street, Sault ste Marie, Ontario</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>Harvard</t>
+  </si>
+  <si>
+    <t>writer</t>
+  </si>
+  <si>
+    <t>self-employed</t>
+  </si>
+  <si>
+    <t>software development skills are lacking but is eager to learn.</t>
   </si>
 </sst>
 </file>
@@ -511,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -579,6 +641,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -586,7 +659,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0A1740-D110-4DE6-8D42-3FA7FEF3F571}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T9" sqref="T9"/>
@@ -818,6 +891,118 @@
         <v>19</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muj\IdeaProjects\EARS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1FB03A-0A95-475F-A0F1-E1025E16717A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04733A61-C278-4B11-A6A4-5F548EA2FC4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="0" windowWidth="29040" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Logins" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
   <si>
     <t>admin</t>
   </si>
@@ -221,6 +221,51 @@
   </si>
   <si>
     <t>software development skills are lacking but is eager to learn.</t>
+  </si>
+  <si>
+    <t>joe</t>
+  </si>
+  <si>
+    <t>micheal</t>
+  </si>
+  <si>
+    <t>scott</t>
+  </si>
+  <si>
+    <t>123 dunder mifflin, new york</t>
+  </si>
+  <si>
+    <t>mscott@dundermifflin.com</t>
+  </si>
+  <si>
+    <t>888990999</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>yale</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>dunder mifflin</t>
+  </si>
+  <si>
+    <t>good manager.</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Masters</t>
+  </si>
+  <si>
+    <t>Bachelors</t>
+  </si>
+  <si>
+    <t>Phd</t>
   </si>
 </sst>
 </file>
@@ -641,7 +686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -659,15 +704,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0A1740-D110-4DE6-8D42-3FA7FEF3F571}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="133.85546875" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -723,7 +771,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -778,10 +826,13 @@
       <c r="R2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -834,13 +885,16 @@
       <c r="R3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.0</v>
+      <c r="S3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
@@ -869,20 +923,20 @@
       <c r="K4" t="s">
         <v>17</v>
       </c>
-      <c r="L4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.0</v>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
       </c>
       <c r="Q4" t="s">
         <v>45</v>
@@ -890,13 +944,16 @@
       <c r="R4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4.0</v>
+      <c r="S4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
@@ -925,20 +982,20 @@
       <c r="K5" t="s">
         <v>55</v>
       </c>
-      <c r="L5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.0</v>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
       </c>
       <c r="Q5" t="s">
         <v>56</v>
@@ -946,13 +1003,16 @@
       <c r="R5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4.0</v>
+      <c r="S5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>58</v>
@@ -981,20 +1041,20 @@
       <c r="K6" t="s">
         <v>64</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.0</v>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
       </c>
       <c r="Q6" t="s">
         <v>65</v>
@@ -1002,8 +1062,130 @@
       <c r="R6" t="s">
         <v>57</v>
       </c>
+      <c r="S6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>